--- a/biology/Botanique/Micromeria/Micromeria.xlsx
+++ b/biology/Botanique/Micromeria/Micromeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Micromeria (les microméries) réunit des plantes de la famille des Lamiaceae, comprenant environ 90 espèces des régions tempérées d'Afrique, d'Amérique, d'Asie et d'Europe.
 </t>
@@ -511,7 +523,9 @@
           <t>Nomenclature et taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre a été créé pour isoler un certain nombre d'espèces à caractères communs auparavant classées dans le genre Satureja.
 Dans la famille des labiées, comme les menthes, les origans, les romarins, les thyms, il se situe dans la sous-famille des népétoïdées et la tribu des menthées.</t>
@@ -542,7 +556,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Micromeria albanica
 Micromeria chamissonis (Bentham) E. Green
@@ -591,7 +607,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Micromeria est répandu dans les régions tempérées : Afrique, Canaries (15 espèces endémiques), Europe (21 espèces), Asie, Amérique du Nord et jusqu'aux Antilles.
 </t>
@@ -622,7 +640,9 @@
           <t>Utilisation humaine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Certaines espèces sont utilisées comme plantes ornementales de rocailles.
 D'autres, (comme Micromeria chamissonis, aux feuilles odorantes, de l'ouest des États-Unis, synonymes Clinopodium douglasii, Satureja douglasii, Thymus douglasii), sont bues en infusion.</t>
